--- a/Computing/Excel/MYEVENT_2023_Nikola_S406.xlsx
+++ b/Computing/Excel/MYEVENT_2023_Nikola_S406.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolawinata/Documents/2024-Notes/Computing/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7518CEC7-57BE-3744-B025-3AC8FD612AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D998BE7E-50E9-4B4D-A3C8-A3CCECC501C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="840" windowWidth="28200" windowHeight="16860" xr2:uid="{A9A9A3F9-A1B8-4E46-99FB-395DD2036310}"/>
   </bookViews>
@@ -33,28 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -217,18 +195,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,7 +544,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -578,103 +556,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2">
         <v>50</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="2" t="str">
         <f>LEFT(C5, 2)</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="str" cm="1">
-        <f t="array" ref="C5">INDEX(IF(B16:B19=MIN(IF(B16:B19&gt;=C3, B16:B19)),A16:A19, ""), 1)</f>
-        <v/>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="2"/>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="2"/>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -737,12 +712,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="E3:F3"/>
@@ -750,6 +719,12 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
